--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/50.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/50.xlsx
@@ -479,13 +479,13 @@
         <v>-1.318810158705455</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.679911467240958</v>
+        <v>-8.763820036153581</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.066442608519647</v>
+        <v>-3.053834720883065</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.443284727920806</v>
+        <v>-5.475989300419437</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2818183128549966</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.929136544136055</v>
+        <v>-9.018858095510403</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.159581250935686</v>
+        <v>-3.142836195601118</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.374458491881851</v>
+        <v>-5.413761585012713</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.6028016662960182</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.747340010229726</v>
+        <v>-9.832688732454937</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.039695033814</v>
+        <v>-3.02535896220231</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.247345323591533</v>
+        <v>-5.282511249024409</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>1.160350101801772</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.51342301871049</v>
+        <v>-10.5939406811871</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.94730265265994</v>
+        <v>-2.932416704328897</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.455958077071596</v>
+        <v>-5.494946954934257</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>1.415266142743444</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.29399920643703</v>
+        <v>-11.37350876159484</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.797382692819334</v>
+        <v>-2.784290389977608</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.009104688780644</v>
+        <v>-5.048551797242765</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>1.367070799552841</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.95552708442377</v>
+        <v>-12.03110894872905</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.765620766125307</v>
+        <v>-2.752240432621063</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.147359406789271</v>
+        <v>-5.183651270266536</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>1.066694626497257</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.45476277638447</v>
+        <v>-12.52975548706188</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.645407241432578</v>
+        <v>-2.63070458534132</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.704813386133247</v>
+        <v>-4.741864603175332</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.5726881276828018</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.43169732213122</v>
+        <v>-13.50227792675097</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.388693367312013</v>
+        <v>-2.381152200875179</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.619556310027926</v>
+        <v>-4.648293914765516</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.02996434221330377</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.17612566171177</v>
+        <v>-14.24270002166195</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.366082960304353</v>
+        <v>-2.361579208126798</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.24890012427582</v>
+        <v>-4.264283580114848</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.6639075549814066</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.87259689598307</v>
+        <v>-14.94260143927778</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.191497101909935</v>
+        <v>-2.183733366324792</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.036634618302915</v>
+        <v>-4.054309227139245</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.252036340680422</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.53299883592542</v>
+        <v>-15.60271534855761</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.178509537490943</v>
+        <v>-2.173377354776986</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.517603364445527</v>
+        <v>-3.535788573092685</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.735623695629813</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.50487975277527</v>
+        <v>-16.57305137367214</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.012643152789115</v>
+        <v>-2.005691139980159</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.879432154728431</v>
+        <v>-2.897669732586956</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.077905658288432</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.14345682388046</v>
+        <v>-17.20472880117974</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.731944179862508</v>
+        <v>-1.72869728875776</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.516016012447799</v>
+        <v>-2.523478625067583</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.265312076313093</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.04813495024373</v>
+        <v>-18.10710268224286</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.568015455981256</v>
+        <v>-1.562084642793955</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.923510755042644</v>
+        <v>-1.931405413656205</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.309658222800575</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.96292033440081</v>
+        <v>-19.01936125195149</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.402803686421515</v>
+        <v>-1.402358548124896</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.563839011374746</v>
+        <v>-1.559649474465393</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.240650773174914</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.75340739537855</v>
+        <v>-19.8053838376602</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.16034733009559</v>
+        <v>-1.165008189907245</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.033993515370092</v>
+        <v>-1.025378780100236</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.09917872184534</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.73669170800354</v>
+        <v>-20.7888252579193</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.065100826922033</v>
+        <v>-1.068478641055198</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6767831246364377</v>
+        <v>-0.6682338508807906</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.933511264531759</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.57808164242991</v>
+        <v>-21.63072579215649</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9148404672075429</v>
+        <v>-0.9223816336443771</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3035739398301944</v>
+        <v>-0.289591360395231</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.788083135713054</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.2269492635687</v>
+        <v>-22.28498744206607</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6590168696802154</v>
+        <v>-0.6747276330902867</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06755356882421443</v>
+        <v>0.07166455191651641</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.697988216191378</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.85581184596532</v>
+        <v>-22.90747407297878</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3576451505665231</v>
+        <v>-0.3764718820529252</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3857096201809996</v>
+        <v>0.3947825860503158</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.689153150968837</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.48648116615411</v>
+        <v>-23.53796010092778</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.09158337221696593</v>
+        <v>-0.1128452720319291</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3536989397329794</v>
+        <v>0.3614233984095978</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.771629470337358</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.99252485559251</v>
+        <v>-24.04511663610772</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01930843285245387</v>
+        <v>0.0001543937950086332</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6149427506367814</v>
+        <v>0.6344371895681115</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.940464943235377</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.38026649655307</v>
+        <v>-24.42959829366069</v>
       </c>
       <c r="F24" t="n">
-        <v>0.002078962312742365</v>
+        <v>-0.01661684614524246</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5460248684779353</v>
+        <v>0.5591171713196614</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.180953732609204</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.65036070417787</v>
+        <v>-24.69457341087438</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2922305778910755</v>
+        <v>0.2720553392119756</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5361401798324321</v>
+        <v>0.5486302367434388</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.466151771522651</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.6631387917514</v>
+        <v>-24.70320123844708</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3049955731617584</v>
+        <v>0.2893371789630541</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3776709462361798</v>
+        <v>0.3934864480689849</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.760986111896078</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.63743860127309</v>
+        <v>-24.67163569629568</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1226983483935646</v>
+        <v>0.1063853390527739</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3524682632658571</v>
+        <v>0.3680611959503529</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.029968223032852</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.75104051303075</v>
+        <v>-24.77761788779945</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2407254585117251</v>
+        <v>0.2247659413476611</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0632200165836031</v>
+        <v>0.08336907065701953</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.237549039327253</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.7954234196642</v>
+        <v>-24.81987984137254</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1907128616563316</v>
+        <v>0.1820719417807924</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03279893245761588</v>
+        <v>-0.01763804576689709</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.352141810974374</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.56926698037622</v>
+        <v>-24.58863049627914</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06452924686777571</v>
+        <v>0.0512143748777403</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.226119876218543</v>
+        <v>-0.2155936647337952</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.350895901474408</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.1004578002197</v>
+        <v>-24.12351334552398</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06418884699389084</v>
+        <v>0.05312585109263231</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6913548576992788</v>
+        <v>-0.6783803855831283</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.220230435583897</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.18093618578779</v>
+        <v>-24.20611268415243</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1276865157762623</v>
+        <v>0.1198835032825935</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7515401738626936</v>
+        <v>-0.7427421463530537</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.955474202707295</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.76258474078327</v>
+        <v>-23.78319202545615</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04660588427745272</v>
+        <v>0.03707468780867615</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.216775155343429</v>
+        <v>-1.204206544615372</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.563071379819205</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.19639501208999</v>
+        <v>-23.21840317316693</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1072810433241955</v>
+        <v>-0.1131987642086557</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.289712374474685</v>
+        <v>-1.283860115104434</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.058790450441793</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.85352069296802</v>
+        <v>-22.87119530180435</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3002092179998708</v>
+        <v>-0.3073314307457698</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.313343981104001</v>
+        <v>-1.307452444825224</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.4615451109833</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.12774888493694</v>
+        <v>-22.1433941868328</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4289851087510884</v>
+        <v>-0.4341958452820954</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.518015951428705</v>
+        <v>-1.515148737106367</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.797527444635131</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.31884095386089</v>
+        <v>-21.34192268377086</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3642960404101199</v>
+        <v>-0.3675167469091846</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.641554921043232</v>
+        <v>-1.629811125394203</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.09437176426039059</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.94149460135667</v>
+        <v>-20.96367296237055</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4213915731028873</v>
+        <v>-0.4275318631356568</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.892285612765128</v>
+        <v>-1.877072356863042</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6228767106111467</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.28769118204655</v>
+        <v>-20.30709397485799</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2745875813386129</v>
+        <v>-0.2778475647462027</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.042375772542675</v>
+        <v>-2.033577745033035</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.327619802110791</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.97838552741077</v>
+        <v>-19.99222409151448</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.555090169722594</v>
+        <v>-0.5600914294081333</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.267314627666371</v>
+        <v>-2.254457986275796</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.000399353188028</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.44467780206781</v>
+        <v>-19.46566476352309</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2786985644309149</v>
+        <v>-0.2842497008358068</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.110023701325874</v>
+        <v>-2.110796147193536</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.624791608192666</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.88847750044276</v>
+        <v>-18.91148067653567</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0213562597739473</v>
+        <v>-0.03165990211038571</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.086955063718753</v>
+        <v>-2.092781138483321</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.185784044153294</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.9870986343956</v>
+        <v>-18.01625519282413</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0309005485455656</v>
+        <v>-0.04035319119729183</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.980645564643937</v>
+        <v>-1.991302699157102</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.676174818756598</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.65328418884011</v>
+        <v>-17.68014959427133</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01699109524946836</v>
+        <v>0.01375729644756202</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.181389844116123</v>
+        <v>-2.200295129419575</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.090278583764531</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.14057651725528</v>
+        <v>-17.17055789076283</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01321284740639368</v>
+        <v>-0.01956261428463082</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.221465383114646</v>
+        <v>-2.242478529175616</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.425573293957559</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.76173764222709</v>
+        <v>-16.79418036866889</v>
       </c>
       <c r="F46" t="n">
-        <v>0.006176853102202624</v>
+        <v>-0.003236512640998418</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.158897267834037</v>
+        <v>-2.19153637881846</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.685846234398434</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.09150338285061</v>
+        <v>-16.12390683238388</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01466066534364112</v>
+        <v>0.01091626673090746</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.454023958492226</v>
+        <v>-2.488247238120498</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.874321723060476</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.43836767098542</v>
+        <v>-15.46614953761556</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01386746254847999</v>
+        <v>-0.01789989182373162</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.388156582895502</v>
+        <v>-2.425954061199566</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.993866830995645</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.90200220816559</v>
+        <v>-14.93714194899278</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1365369124972691</v>
+        <v>0.1295063458712622</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.570715653720531</v>
+        <v>-2.620335481490673</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.049130503162099</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.20069991414569</v>
+        <v>-14.23602294721267</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2791775519578746</v>
+        <v>0.2720684315148174</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.488312699634707</v>
+        <v>-2.551051014852258</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.042189582324847</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.42939307683108</v>
+        <v>-13.46042183456597</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2778814139765437</v>
+        <v>0.2709032165619037</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.556130828354848</v>
+        <v>-2.630298723953226</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.973495565852415</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.84031800277046</v>
+        <v>-12.87050885312348</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3602450911538424</v>
+        <v>0.3506877100793824</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.567926993215243</v>
+        <v>-2.645996395060456</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.84632494093562</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.19118853557484</v>
+        <v>-12.21180891255056</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4123262718582287</v>
+        <v>0.4025725062411428</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.587591632083516</v>
+        <v>-2.669326878724411</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.664858614148132</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.81337086016831</v>
+        <v>-11.84322131064744</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3010416977035572</v>
+        <v>0.2887087484266512</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.695053253808403</v>
+        <v>-2.779354591806277</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>4.431698437881551</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.35753615212793</v>
+        <v>-11.3843230037421</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05239268213349565</v>
+        <v>0.04362083922953918</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.164975279706477</v>
+        <v>-3.252746077957409</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>4.152246111120036</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.91241094781209</v>
+        <v>-10.94089979879568</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1432925407635997</v>
+        <v>0.1294932535684205</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.236511622433668</v>
+        <v>-3.326023696962549</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>3.831259962003548</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.15558419744043</v>
+        <v>-10.18328751025352</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07924499526187581</v>
+        <v>0.06498747746723613</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.602572409888329</v>
+        <v>-3.688903054826671</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>3.472461994505315</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.85493255498303</v>
+        <v>-9.880200699467562</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.09786767758099443</v>
+        <v>-0.1066787973934761</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.634308151976673</v>
+        <v>-3.723519103540195</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>3.085757558340224</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.306888758028377</v>
+        <v>-9.336739208507513</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.008800741348731997</v>
+        <v>-0.0222596286700264</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.91894790805864</v>
+        <v>-4.005789152807808</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>2.68079210826652</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.940448293791306</v>
+        <v>-8.968766944837959</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1440835066122875</v>
+        <v>-0.157346009390956</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.830614140785514</v>
+        <v>-3.915085678720331</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>2.267989283120941</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.408756783085968</v>
+        <v>-8.430267436654924</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1684875591092649</v>
+        <v>-0.1781104016979335</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.234511683452763</v>
+        <v>-4.317582344983514</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.862657178072054</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.90064450979858</v>
+        <v>-7.925362777563759</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1132904103285478</v>
+        <v>-0.1230572682484754</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.188230392907261</v>
+        <v>-4.27719259071679</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.478488165211387</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.422055379419284</v>
+        <v>-7.449195723210182</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1668117443455239</v>
+        <v>-0.1770106482592285</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.191974791519995</v>
+        <v>-4.278344713366862</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>1.132273665418163</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.063810696761133</v>
+        <v>-7.081197274934945</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3257653931469201</v>
+        <v>-0.3337909747888982</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.436146239518187</v>
+        <v>-4.525121529630557</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.8423074757571178</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.693992418390897</v>
+        <v>-6.716524271581507</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2699790907383253</v>
+        <v>-0.2800470716236127</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.720275395789325</v>
+        <v>-4.810101685586408</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.6207702939342276</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.442973696006483</v>
+        <v>-6.467875256011446</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3863958476069536</v>
+        <v>-0.395979413287097</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.714567151750333</v>
+        <v>-4.801342934985293</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.4793425265410221</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.278403449285986</v>
+        <v>-6.300411610362928</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4443947491958</v>
+        <v>-0.4511241928564472</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.82938664767227</v>
+        <v>-4.913255939676367</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.4234305011911844</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.001605982606214</v>
+        <v>-6.021427729108587</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4090979007345065</v>
+        <v>-0.4150548985274919</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.824895987797558</v>
+        <v>-4.905073250400289</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.450627680659154</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.866729078730752</v>
+        <v>-5.885804563971146</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6682993123949992</v>
+        <v>-0.6728685260867616</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.924358212486151</v>
+        <v>-5.00262399887399</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.5576323803405058</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.632547057800798</v>
+        <v>-5.653769680707236</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6128795944659727</v>
+        <v>-0.6211146529534185</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.789651508547632</v>
+        <v>-4.866594972348456</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.7343142923754113</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.510317318470443</v>
+        <v>-5.529497542133572</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7094353279237026</v>
+        <v>-0.7153923257166879</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.766006809615474</v>
+        <v>-4.839284428620616</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.9674255230788289</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.48829606509066</v>
+        <v>-5.510474426104544</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8045116311603172</v>
+        <v>-0.8063314612553172</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.663716647513069</v>
+        <v>-4.731652606958785</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.244577206312483</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.525609128189579</v>
+        <v>-5.550942734188319</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8601801028433365</v>
+        <v>-0.8629033018344155</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.475632624888832</v>
+        <v>-4.545113476069872</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.549096696323354</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.761466963883274</v>
+        <v>-5.786879123699064</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.752810127238341</v>
+        <v>-0.7571436794789523</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.362279466885168</v>
+        <v>-4.439262207594517</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.865304630938929</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.961281689853697</v>
+        <v>-5.981600943864056</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.081976805285018</v>
+        <v>-1.080733036515054</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.19929338880852</v>
+        <v>-4.27689146775143</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>2.176996173510279</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.487932663964971</v>
+        <v>-6.510124117281696</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9961567601575034</v>
+        <v>-0.9930538843840143</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.028910159626297</v>
+        <v>-4.110056252639315</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.467036460282121</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.954974383237865</v>
+        <v>-6.977257482674482</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.055019753733904</v>
+        <v>-1.048421233101674</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.954558971788134</v>
+        <v>-4.032811665873131</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>2.723375427893367</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.533510153510898</v>
+        <v>-7.559027051749422</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.143392797915555</v>
+        <v>-1.137933307630555</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.551839736376641</v>
+        <v>-3.635839951409155</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>2.935806093847579</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.957399642617463</v>
+        <v>-7.984592355619728</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.109182610590125</v>
+        <v>-1.098708768316744</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.347298689080354</v>
+        <v>-3.434702902851718</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.096993008370704</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.429560452301471</v>
+        <v>-8.454789319877477</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.29733209472857</v>
+        <v>-1.285391914536916</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.980674932603499</v>
+        <v>-3.067961315649287</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.205639633874928</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.369286673372043</v>
+        <v>-9.396387740254417</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.218136754838969</v>
+        <v>-1.206497697612674</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.959399940485694</v>
+        <v>-3.052643321324467</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.261787896603138</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19408866009794</v>
+        <v>-10.21758934369884</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.311851458580044</v>
+        <v>-1.297764140722347</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.784800989788435</v>
+        <v>-2.879353600911381</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.268386609388893</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02806835111589</v>
+        <v>-11.05160831162532</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.423685909454068</v>
+        <v>-1.402633486484573</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.410099282458235</v>
+        <v>-2.503918724622044</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.233056436126218</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24122731703592</v>
+        <v>-12.2605515560303</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.497749066629713</v>
+        <v>-1.480061365490541</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.306198767106297</v>
+        <v>-2.399193394191077</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>3.163890107724267</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13007684926354</v>
+        <v>-13.14464858232638</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.595142707469313</v>
+        <v>-1.574627068916328</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.963612478646851</v>
+        <v>-2.060862104155193</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.067566188815515</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.3191197933491</v>
+        <v>-14.32478876047957</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.806622675271714</v>
+        <v>-1.779573977600708</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.71724152377125</v>
+        <v>-1.807630782590527</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.95033839381194</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.41990752397859</v>
+        <v>-15.42189755401053</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.84754921395495</v>
+        <v>-1.819230562908296</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.301299062489613</v>
+        <v>-1.395275612287523</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.81448541696128</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.83598409164252</v>
+        <v>-16.83530329189475</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.868667098438654</v>
+        <v>-1.841016154836928</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9937608687374676</v>
+        <v>-1.084464342824946</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.65848826146218</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.52507445046497</v>
+        <v>-18.509520794689</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.094731891606738</v>
+        <v>-2.066439425165768</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7899529904003179</v>
+        <v>-0.8808135721218968</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.480419810258838</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.1380723451713</v>
+        <v>-20.12377555046814</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.318335331840577</v>
+        <v>-2.292504218333852</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5019354201851861</v>
+        <v>-0.5867211733882041</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.277195244354405</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.96281205373687</v>
+        <v>-21.94720602874954</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.527759808096827</v>
+        <v>-2.498446142034203</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6637562833089203</v>
+        <v>-0.7375575944277302</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.044446214118223</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.68340249319651</v>
+        <v>-23.66481142316126</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.627575524962147</v>
+        <v>-2.600801765650817</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4840251498977048</v>
+        <v>-0.5605234754019103</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.778987416855413</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.76435856837466</v>
+        <v>-25.74091025398513</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.801637691242895</v>
+        <v>-2.783046621207644</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4772957062370576</v>
+        <v>-0.5486487567244647</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.475653638895579</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.03155265147637</v>
+        <v>-28.00644161462593</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.673699707873548</v>
+        <v>-2.652634192601211</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.611963133267052</v>
+        <v>-0.6871129515785596</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.13022846597419</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.31047743792426</v>
+        <v>-30.2851700165312</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.160104943049355</v>
+        <v>-3.144603656484751</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9938001456459927</v>
+        <v>-1.058240460232968</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.7367215765891416</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.49558278220834</v>
+        <v>-32.46632148535708</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.21998913624741</v>
+        <v>-3.205142464824893</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.222653599319364</v>
+        <v>-1.282302131066268</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2997681591546603</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.72008286574317</v>
+        <v>-34.69180349160504</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.589624122377862</v>
+        <v>-3.569108483824877</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.454505190343491</v>
+        <v>-1.509060816284964</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1919579063775227</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.2241167072517</v>
+        <v>-37.19403059532141</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.836374754035873</v>
+        <v>-3.814445146775982</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.884757538631135</v>
+        <v>-1.931012644570953</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.7121276593209173</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.75553964630512</v>
+        <v>-39.72125090516264</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.732932469283396</v>
+        <v>-3.70634200221185</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.361749408063741</v>
+        <v>-2.406407253056869</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.28275271670361</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.32214160309425</v>
+        <v>-42.29476559785221</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.915923586102201</v>
+        <v>-3.895080639978173</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.722651828198762</v>
+        <v>-2.757961768962897</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.839435646530949</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.57029947786409</v>
+        <v>-44.55043845445319</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.151742144887371</v>
+        <v>-4.127573753841545</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.329021834313305</v>
+        <v>-3.360338622710713</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.445408622228261</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.87534340848122</v>
+        <v>-46.85850670702676</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.295155230215638</v>
+        <v>-4.267360271282653</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.607246362002825</v>
+        <v>-3.629267615382608</v>
       </c>
     </row>
   </sheetData>
